--- a/Таблица.xlsx
+++ b/Таблица.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ФАМИЛИЯ-ИМЯ</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>БАЛЛЫ</t>
+  </si>
+  <si>
+    <t>ОЛИМПИАДА</t>
   </si>
 </sst>
 </file>
@@ -308,7 +311,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
